--- a/mcmaster_excel/Metric_Stainless_Steel_Thread-Locking_Button_Head_Hex_Drive_Screws.xlsx
+++ b/mcmaster_excel/Metric_Stainless_Steel_Thread-Locking_Button_Head_Hex_Drive_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,147 +434,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize, mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Thread LockerTemperature Range, °F</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize, mm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Thread LockerTemperature Range, °F</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ASTM F879, MIL-DTL-18240</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>93310A801</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>$13.09</t>
-        </is>
-      </c>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
@@ -585,7 +555,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -630,12 +600,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>93310A802</t>
+          <t>93310A801</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>$13.09</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -648,7 +618,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -693,12 +663,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>93310A803</t>
+          <t>93310A802</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15.96</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -711,7 +681,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -756,12 +726,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>93310A804</t>
+          <t>93310A803</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>15.96</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -774,19 +744,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ASTM F879, MIL-DTL-18240</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>93310A804</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
@@ -797,59 +807,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ASTM F879, MIL-DTL-18240</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>93310A805</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>10.58</t>
-        </is>
-      </c>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
@@ -860,7 +830,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -905,12 +875,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>93310A806</t>
+          <t>93310A805</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -923,7 +893,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -968,12 +938,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>93310A105</t>
+          <t>93310A806</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -986,7 +956,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1031,12 +1001,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>93310A807</t>
+          <t>93310A105</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1049,7 +1019,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1094,12 +1064,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>93310A808</t>
+          <t>93310A807</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>15.60</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1112,19 +1082,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ASTM F879, MIL-DTL-18240</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>93310A808</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
@@ -1135,59 +1145,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ASTM F879, MIL-DTL-18240</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>93310A809</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>12.37</t>
-        </is>
-      </c>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
@@ -1198,7 +1168,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1243,12 +1213,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>93310A810</t>
+          <t>93310A809</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1261,7 +1231,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1306,12 +1276,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>93310A811</t>
+          <t>93310A810</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1324,7 +1294,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1369,12 +1339,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>93310A812</t>
+          <t>93310A811</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>18.83</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1387,19 +1357,59 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ASTM F879, MIL-DTL-18240</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>93310A812</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1410,59 +1420,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ASTM F879, MIL-DTL-18240</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>93310A813</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>14.16</t>
-        </is>
-      </c>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1473,7 +1443,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1518,12 +1488,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>93310A814</t>
+          <t>93310A813</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15.96</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1536,7 +1506,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1581,12 +1551,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>93310A815</t>
+          <t>93310A814</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>15.96</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1599,7 +1569,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1644,16 +1614,79 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>93310A816</t>
+          <t>93310A815</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>19.54</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ASTM F879, MIL-DTL-18240</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>93310A816</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
